--- a/work1/100_jinmeng.xlsx
+++ b/work1/100_jinmeng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\jinmeng\01_work相互参照表\plottype\work1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2F2F831-510F-4AE9-8768-ACD21C0562C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62AF1DDD-EC3F-4776-AD58-D71A71574875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="530" yWindow="235" windowWidth="17575" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="title" sheetId="3" r:id="rId1"/>
